--- a/evaluation/YAGO3-10/evaluation-by-extraction-100@1.xlsx
+++ b/evaluation/YAGO3-10/evaluation-by-extraction-100@1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,256 +436,559 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>model_id</t>
+          <t>type</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>precision_mean</t>
+          <t>model</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>recall_mean</t>
+          <t>prec_mean</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>f1_score_mean</t>
+          <t>rec_mean</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>count</t>
+          <t>f1_mean</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>valid_count</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>invalid_count</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>JSON range error</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>JSON format error</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>JSON key error</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ASSISTANT: length</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Llama-2-13b-chat-hf</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1670083238018021</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1575076091380439</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1607123055166005</v>
-      </c>
-      <c r="E2" t="n">
-        <v>92</v>
+          <t>extraction</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>gpt-4o-2024-08-06</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Llama-2-70b-chat-hf</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.4194763268132833</v>
+          <t>generation</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Llama-2-13b-chat-hf</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3994817671111587</v>
+        <v>0.1670083238018021</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4026762770471262</v>
+        <v>0.1575076091380439</v>
       </c>
       <c r="E3" t="n">
+        <v>0.1607123055166005</v>
+      </c>
+      <c r="F3" t="n">
         <v>92</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Llama-2-7b-chat-hf</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.03246282702804442</v>
+          <t>generation</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Llama-2-70b-chat-hf</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>0.03467908902691512</v>
+        <v>0.4194763268132833</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03082726493895909</v>
+        <v>0.3994817671111587</v>
       </c>
       <c r="E4" t="n">
+        <v>0.4026762770471262</v>
+      </c>
+      <c r="F4" t="n">
         <v>92</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Llama-3-70b-chat-hf</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7344229844229845</v>
+          <t>generation</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Llama-2-7b-chat-hf</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6678618951152159</v>
+        <v>0.03246282702804442</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6936316051517727</v>
+        <v>0.03467908902691512</v>
       </c>
       <c r="E5" t="n">
-        <v>93</v>
+        <v>0.03082726493895909</v>
+      </c>
+      <c r="F5" t="n">
+        <v>92</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Llama-3-8b-chat-hf</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.443705846125201</v>
+          <t>generation</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Llama-3-70b-chat-hf</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4268400937564359</v>
+        <v>0.7344229844229845</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4330634006234316</v>
+        <v>0.6678618951152159</v>
       </c>
       <c r="E6" t="n">
+        <v>0.6936316051517727</v>
+      </c>
+      <c r="F6" t="n">
         <v>93</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Meta-Llama-3-70B-Instruct-Lite</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.7051958644700581</v>
+          <t>generation</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Llama-3-8b-chat-hf</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6080602635543711</v>
+        <v>0.443705846125201</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6418570086017731</v>
+        <v>0.4268400937564359</v>
       </c>
       <c r="E7" t="n">
+        <v>0.4330634006234316</v>
+      </c>
+      <c r="F7" t="n">
         <v>93</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Meta-Llama-3-70B-Instruct-Turbo</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.7041053629763306</v>
+          <t>generation</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Meta-Llama-3-70B-Instruct-Lite</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6312520891505712</v>
+        <v>0.7051958644700581</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6588515709186034</v>
+        <v>0.6080602635543711</v>
       </c>
       <c r="E8" t="n">
+        <v>0.6418570086017731</v>
+      </c>
+      <c r="F8" t="n">
         <v>93</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Meta-Llama-3-8B-Instruct-Lite</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.3556728665599633</v>
+          <t>generation</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Meta-Llama-3-70B-Instruct-Turbo</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>0.3578974772331742</v>
+        <v>0.7041053629763306</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3519824396247602</v>
+        <v>0.6312520891505712</v>
       </c>
       <c r="E9" t="n">
+        <v>0.6588515709186034</v>
+      </c>
+      <c r="F9" t="n">
         <v>93</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Meta-Llama-3-8B-Instruct-Turbo</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.3965948328851555</v>
+          <t>generation</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Meta-Llama-3-8B-Instruct-Lite</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>0.3829032416065107</v>
+        <v>0.3556728665599633</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3879828507908498</v>
+        <v>0.3578974772331742</v>
       </c>
       <c r="E10" t="n">
+        <v>0.3519824396247602</v>
+      </c>
+      <c r="F10" t="n">
         <v>93</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Meta-Llama-3.1-405B-Instruct-Turbo</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.8068464092657641</v>
+          <t>generation</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Meta-Llama-3-8B-Instruct-Turbo</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>0.7637910924201248</v>
+        <v>0.3965948328851555</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7789730883840239</v>
+        <v>0.3829032416065107</v>
       </c>
       <c r="E11" t="n">
+        <v>0.3879828507908498</v>
+      </c>
+      <c r="F11" t="n">
         <v>93</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Meta-Llama-3.1-70B-Instruct-Turbo</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.5984636480604223</v>
+          <t>generation</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Meta-Llama-3.1-405B-Instruct-Turbo</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>0.5631499043750617</v>
+        <v>0.8068464092657641</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5770086804934944</v>
+        <v>0.7637910924201248</v>
       </c>
       <c r="E12" t="n">
+        <v>0.7789730883840239</v>
+      </c>
+      <c r="F12" t="n">
         <v>93</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>generation</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Meta-Llama-3.1-70B-Instruct-Turbo</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5984636480604223</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5631499043750617</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5770086804934944</v>
+      </c>
+      <c r="F13" t="n">
+        <v>93</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>generation</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>Meta-Llama-3.1-8B-Instruct-Turbo</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C14" t="n">
         <v>0.3663480380747933</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D14" t="n">
         <v>0.3466171710462466</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E14" t="n">
         <v>0.354204098387242</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F14" t="n">
         <v>93</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
